--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ichiponmai/Downloads/flashcard_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ichiponmai/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECCDA4D-904B-4645-B0C8-3A8BFF91B928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D708726-F9ED-C349-B07A-FC4DA35A8A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16380" xr2:uid="{74E6C8AC-133E-0146-A834-A460386D8C2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="sampleのコピー" sheetId="1" r:id="rId1"/>
+    <sheet name="sample" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ichiponmai/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D708726-F9ED-C349-B07A-FC4DA35A8A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305E3E1D-EB23-6B4D-A66E-1378CBAB4457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16380" xr2:uid="{74E6C8AC-133E-0146-A834-A460386D8C2E}"/>
   </bookViews>
